--- a/Proyectos/2015/11/P1342 - RNCNOM, Moisés Meneses_OC/Calidad/No_conformidades_P1342.xlsx
+++ b/Proyectos/2015/11/P1342 - RNCNOM, Moisés Meneses_OC/Calidad/No_conformidades_P1342.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
-    <t>REPORTE DE NO CONFORMIDADES P1339 - DA3 - CBANT, Héctor Antonio Núñez Ruiz_OC
+    <t>REPORTE DE NO CONFORMIDADES P1342 - RNCNOM, Moisés Meneses_OC
 </t>
   </si>
   <si>
@@ -322,8 +322,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Proyectos/2015/11/P1342 - RNCNOM, Moisés Meneses_OC/Calidad/No_conformidades_P1342.xlsx
+++ b/Proyectos/2015/11/P1342 - RNCNOM, Moisés Meneses_OC/Calidad/No_conformidades_P1342.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>REPORTE DE NO CONFORMIDADES P1342 - RNCNOM, Moisés Meneses_OC
 </t>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>En riesgos no tiene una redacción establecida y los responsables deben tener nombre en lugar de rol</t>
-  </si>
-  <si>
-    <t>En proceso</t>
   </si>
   <si>
     <t>Los riesgos deben estar redactados de forma causa efecto</t>
@@ -322,8 +319,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,10 +452,10 @@
         <v>42354</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -478,10 +475,10 @@
         <v>42354</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -504,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -524,10 +521,10 @@
         <v>42354</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
